--- a/Analytics/E0/RefereeFirstCard_e0.xlsx
+++ b/Analytics/E0/RefereeFirstCard_e0.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="55">
   <si>
     <t>Referee</t>
   </si>
@@ -70,6 +70,12 @@
     <t>15</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
     <t>D Coote</t>
   </si>
   <si>
@@ -82,21 +88,21 @@
     <t>M Oliver</t>
   </si>
   <si>
+    <t>A Madley</t>
+  </si>
+  <si>
+    <t>P Tierney</t>
+  </si>
+  <si>
     <t>A Taylor</t>
   </si>
   <si>
-    <t>A Madley</t>
-  </si>
-  <si>
-    <t>P Tierney</t>
+    <t>C Kavanagh</t>
   </si>
   <si>
     <t>T Bramall</t>
   </si>
   <si>
-    <t>C Kavanagh</t>
-  </si>
-  <si>
     <t>S Hooper</t>
   </si>
   <si>
@@ -112,13 +118,13 @@
     <t>T Harrington</t>
   </si>
   <si>
+    <t>C Pawson</t>
+  </si>
+  <si>
     <t>M Salisbury</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
+    <t>S Allison</t>
   </si>
   <si>
     <t>18</t>
@@ -148,9 +154,6 @@
     <t>S Attwell</t>
   </si>
   <si>
-    <t>C Pawson</t>
-  </si>
-  <si>
     <t>D England</t>
   </si>
   <si>
@@ -158,9 +161,6 @@
   </si>
   <si>
     <t>R Welch</t>
-  </si>
-  <si>
-    <t>S Allison</t>
   </si>
   <si>
     <t>G Scott</t>
@@ -246,7 +246,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" t="n">
         <v>7.0</v>
@@ -257,7 +257,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
         <v>6.0</v>
@@ -268,7 +268,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" t="n">
         <v>6.0</v>
@@ -279,7 +279,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" t="n">
         <v>5.0</v>
@@ -290,10 +290,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="7">
@@ -301,10 +301,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="8">
@@ -312,7 +312,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="n">
         <v>4.0</v>
@@ -323,7 +323,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="n">
         <v>4.0</v>
@@ -334,10 +334,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="11">
@@ -345,10 +345,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="12">
@@ -356,7 +356,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12" t="n">
         <v>2.0</v>
@@ -367,7 +367,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
         <v>2.0</v>
@@ -378,7 +378,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C14" t="n">
         <v>2.0</v>
@@ -389,7 +389,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15" t="n">
         <v>2.0</v>
@@ -400,9 +400,31 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -433,10 +455,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C2" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="3">
@@ -444,10 +466,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C3" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="4">
@@ -455,10 +477,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="5">
@@ -466,10 +488,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="6">
@@ -477,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="7">
@@ -488,10 +510,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C7" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="8">
@@ -499,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C8" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="9">
@@ -510,10 +532,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C9" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="10">
@@ -521,10 +543,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C10" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="11">
@@ -532,7 +554,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -543,10 +565,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C12" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="13">
@@ -554,10 +576,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C13" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="14">
@@ -565,10 +587,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C14" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="15">
@@ -576,7 +598,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C15" t="n">
         <v>4.0</v>
@@ -587,18 +609,18 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C16" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C17" t="n">
         <v>3.0</v>
@@ -606,10 +628,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C18" t="n">
         <v>2.0</v>
@@ -617,10 +639,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" t="n">
         <v>2.0</v>
@@ -628,10 +650,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" t="n">
         <v>2.0</v>
@@ -639,10 +661,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C21" t="n">
         <v>2.0</v>
@@ -650,7 +672,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
         <v>48</v>
@@ -661,10 +683,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C23" t="n">
         <v>1.0</v>
@@ -672,7 +694,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
@@ -683,7 +705,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
@@ -694,7 +716,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
@@ -730,10 +752,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C2" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="3">
@@ -741,10 +763,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="4">
@@ -752,10 +774,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="5">
@@ -763,10 +785,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C5" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="6">
@@ -777,7 +799,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="7">
@@ -785,10 +807,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C7" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="8">
@@ -799,7 +821,7 @@
         <v>29</v>
       </c>
       <c r="C8" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="9">
@@ -807,10 +829,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C9" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="10">
@@ -818,10 +840,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C10" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="11">
@@ -829,10 +851,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="12">
@@ -840,10 +862,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C12" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="13">
@@ -851,10 +873,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C13" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="14">
@@ -862,10 +884,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="15">
@@ -873,10 +895,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C15" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="16">
@@ -884,29 +906,29 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C17" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" t="n">
         <v>3.0</v>
@@ -914,7 +936,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
         <v>48</v>
@@ -925,10 +947,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C20" t="n">
         <v>2.0</v>
@@ -936,10 +958,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C21" t="n">
         <v>2.0</v>
@@ -947,7 +969,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
         <v>51</v>
@@ -958,7 +980,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
         <v>52</v>
@@ -969,7 +991,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
         <v>53</v>
@@ -980,10 +1002,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C25" t="n">
         <v>1.0</v>
@@ -1016,10 +1038,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C2" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="3">
@@ -1027,7 +1049,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C3" t="n">
         <v>5.0</v>
@@ -1038,7 +1060,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -1049,7 +1071,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C5" t="n">
         <v>4.0</v>
@@ -1060,10 +1082,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="7">
@@ -1071,7 +1093,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C7" t="n">
         <v>3.0</v>
@@ -1082,7 +1104,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C8" t="n">
         <v>3.0</v>
@@ -1093,10 +1115,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="10">
@@ -1104,10 +1126,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C10" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="11">
@@ -1115,10 +1137,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C11" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="12">
@@ -1126,7 +1148,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C12" t="n">
         <v>2.0</v>
@@ -1137,10 +1159,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C13" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="14">
@@ -1148,10 +1170,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C14" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
@@ -1159,10 +1181,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="16">
@@ -1170,18 +1192,18 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="C16" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C17" t="n">
         <v>1.0</v>
@@ -1189,10 +1211,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C18" t="n">
         <v>1.0</v>
@@ -1200,10 +1222,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C19" t="n">
         <v>1.0</v>
@@ -1211,10 +1233,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C20" t="n">
         <v>1.0</v>
@@ -1222,12 +1244,34 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
         <v>54</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C23" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1258,10 +1302,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="3">
@@ -1269,10 +1313,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
@@ -1280,10 +1324,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
@@ -1291,10 +1335,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -1302,10 +1346,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
@@ -1313,10 +1357,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -1324,10 +1368,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
@@ -1335,10 +1379,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
@@ -1346,7 +1390,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -1357,7 +1401,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -1368,7 +1412,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -1379,7 +1423,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
@@ -1390,9 +1434,75 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C14" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1423,10 +1533,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -1434,10 +1544,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -1445,10 +1555,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -1456,10 +1566,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -1467,10 +1577,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -1478,10 +1588,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -1492,6 +1602,61 @@
         <v>23</v>
       </c>
       <c r="C8" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="n">
         <v>1.0</v>
       </c>
     </row>

--- a/Analytics/E0/RefereeFirstCard_e0.xlsx
+++ b/Analytics/E0/RefereeFirstCard_e0.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="43">
   <si>
     <t>Referee</t>
   </si>
@@ -67,49 +67,64 @@
     <t>14</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>S Hooper</t>
   </si>
   <si>
+    <t>T Harrington</t>
+  </si>
+  <si>
+    <t>S Barrott</t>
+  </si>
+  <si>
+    <t>A Taylor</t>
+  </si>
+  <si>
     <t>T Robinson</t>
   </si>
   <si>
-    <t>S Barrott</t>
-  </si>
-  <si>
-    <t>A Taylor</t>
-  </si>
-  <si>
-    <t>T Harrington</t>
+    <t>C Pawson</t>
+  </si>
+  <si>
+    <t>R Jones</t>
+  </si>
+  <si>
+    <t>J Gillett</t>
+  </si>
+  <si>
+    <t>J Brooks</t>
   </si>
   <si>
     <t>D Coote</t>
   </si>
   <si>
-    <t>C Pawson</t>
-  </si>
-  <si>
-    <t>J Gillett</t>
-  </si>
-  <si>
-    <t>R Jones</t>
-  </si>
-  <si>
     <t>P Bankes</t>
   </si>
   <si>
+    <t>M Oliver</t>
+  </si>
+  <si>
+    <t>A Madley</t>
+  </si>
+  <si>
+    <t>M Salisbury</t>
+  </si>
+  <si>
     <t>C Kavanagh</t>
   </si>
   <si>
-    <t>J Brooks</t>
-  </si>
-  <si>
-    <t>A Madley</t>
-  </si>
-  <si>
-    <t>M Oliver</t>
-  </si>
-  <si>
-    <t>15</t>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>S Attwell</t>
@@ -118,25 +133,19 @@
     <t>J Smith</t>
   </si>
   <si>
+    <t>D England</t>
+  </si>
+  <si>
+    <t>T Bramall</t>
+  </si>
+  <si>
+    <t>L Smith</t>
+  </si>
+  <si>
     <t>S Allison</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>D Bond</t>
-  </si>
-  <si>
-    <t>D England</t>
-  </si>
-  <si>
-    <t>L Smith</t>
-  </si>
-  <si>
-    <t>M Salisbury</t>
   </si>
 </sst>
 </file>
@@ -201,10 +210,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -212,10 +221,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
@@ -223,10 +232,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -234,10 +243,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -245,10 +254,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
@@ -256,7 +265,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -267,7 +276,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="n">
         <v>2.0</v>
@@ -278,7 +287,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -289,10 +298,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
@@ -300,10 +309,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
@@ -311,10 +320,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
@@ -322,7 +331,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
@@ -333,7 +342,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" t="n">
         <v>1.0</v>
@@ -344,9 +353,20 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -377,10 +397,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -388,7 +408,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C3" t="n">
         <v>3.0</v>
@@ -399,7 +419,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C4" t="n">
         <v>3.0</v>
@@ -410,7 +430,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -421,10 +441,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
@@ -432,10 +452,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
@@ -443,10 +463,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="9">
@@ -454,10 +474,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
@@ -465,10 +485,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
@@ -476,10 +496,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
@@ -487,10 +507,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C12" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
@@ -498,10 +518,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="14">
@@ -509,10 +529,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C14" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
@@ -520,7 +540,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -528,12 +548,56 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
         <v>33</v>
       </c>
-      <c r="C16" t="n">
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -564,10 +628,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -575,10 +639,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
@@ -586,10 +650,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
@@ -597,10 +661,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="6">
@@ -608,10 +672,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
@@ -619,10 +683,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
@@ -630,10 +694,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="9">
@@ -641,7 +705,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -652,7 +716,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C10" t="n">
         <v>2.0</v>
@@ -663,7 +727,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C11" t="n">
         <v>2.0</v>
@@ -674,7 +738,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C12" t="n">
         <v>2.0</v>
@@ -685,7 +749,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C13" t="n">
         <v>2.0</v>
@@ -696,10 +760,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C14" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
@@ -707,29 +771,29 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C15" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C16" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C17" t="n">
         <v>1.0</v>
@@ -737,12 +801,23 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -773,10 +848,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C2" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -784,10 +859,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -795,10 +870,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -806,10 +881,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -817,10 +892,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -828,10 +903,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -839,10 +914,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
@@ -850,10 +925,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
@@ -861,9 +936,42 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C10" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -894,10 +1002,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -905,10 +1013,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -916,10 +1024,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -927,9 +1035,64 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C5" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -960,10 +1123,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -971,7 +1134,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -982,7 +1145,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -1004,9 +1167,20 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C6" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="n">
         <v>1.0</v>
       </c>
     </row>
